--- a/fin_data/stocks/KSE100 after 2020.xlsx
+++ b/fin_data/stocks/KSE100 after 2020.xlsx
@@ -1987,7 +1987,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A891" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1378" workbookViewId="0">
+      <selection activeCell="B348" sqref="B348"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
